--- a/python/lin/pert Error t1=6 t2=5.xlsx
+++ b/python/lin/pert Error t1=6 t2=5.xlsx
@@ -470,16 +470,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>6.13</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.69e-07</v>
+        <v>2.18</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5.95</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0602</v>
+        <v>-0.753</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4.66</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.000128</v>
+        <v>-6.84</v>
       </c>
       <c r="E3" t="n">
-        <v>4.78</v>
+        <v>4.85</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.31</v>
+        <v>-3.05</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0001</v>
+        <v>6e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001</v>
+        <v>6.07e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.03e-06</v>
+        <v>1.14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001</v>
+        <v>6.04e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.227</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="5">
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.74e-08</v>
+        <v>-0.000114</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>5.76e-08</v>
+        <v>156000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>125000</v>
+        <v>430000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.94e-10</v>
+        <v>797</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>639</v>
+        <v>2190</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
